--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/145.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/145.xlsx
@@ -479,13 +479,13 @@
         <v>-7.187006391429542</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.51974624209571</v>
+        <v>-9.186072987404929</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1279537895112809</v>
+        <v>-2.044130141123467</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.855711726445776</v>
+        <v>-8.858346462670841</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.348100948212615</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.91845923283764</v>
+        <v>-9.90014027669551</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.195915933562681</v>
+        <v>-2.063598395449113</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.965962008675952</v>
+        <v>-8.877173194157244</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.529631467545472</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.31742097733356</v>
+        <v>-10.55048732805541</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05403464766689556</v>
+        <v>-1.915458988794983</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.769786942895528</v>
+        <v>-8.253311871446154</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.699002195658289</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.72350493457537</v>
+        <v>-11.25468302100333</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.06745425807966478</v>
+        <v>-1.898844856488832</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.806864344543296</v>
+        <v>-7.802373684668584</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.852901421563746</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.39176225622275</v>
+        <v>-12.06541078217438</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1191819466073245</v>
+        <v>-1.947404207728794</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.807793898045059</v>
+        <v>-7.649547233597116</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.977713458216343</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.98494831337568</v>
+        <v>-12.77361271979187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03280659708227344</v>
+        <v>-1.896331134343221</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.576937322036903</v>
+        <v>-7.032467723758041</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.061566330179451</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.62970495142216</v>
+        <v>-13.57882862146654</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06526241582691238</v>
+        <v>-1.859672686386388</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.584570134593629</v>
+        <v>-6.666799705388632</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.094568291492857</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.20244083153631</v>
+        <v>-14.19425850114756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09925003400403325</v>
+        <v>-1.864110977049733</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.375551519725472</v>
+        <v>-6.378153704637097</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.064591426544519</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.95786670550391</v>
+        <v>-15.16108578910051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2984886986494206</v>
+        <v>-1.811362088900419</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.233774972252421</v>
+        <v>-6.204719968892752</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.966942467497382</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.59489888487377</v>
+        <v>-15.8200606680331</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3304601021889156</v>
+        <v>-1.773080195391212</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.213769933510264</v>
+        <v>-6.109957880924338</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.799903797413847</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.38177247026719</v>
+        <v>-16.62095610977001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3875687271845247</v>
+        <v>-1.689079980358697</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.098466022383182</v>
+        <v>-5.701190001599968</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.569234137155522</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.10136471135698</v>
+        <v>-17.21216522919384</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4247770518607102</v>
+        <v>-1.67089477171154</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.769731390330282</v>
+        <v>-5.425610119084475</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.292608429496832</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.12945088430636</v>
+        <v>-18.22557493065764</v>
       </c>
       <c r="F14" t="n">
-        <v>0.546325991443295</v>
+        <v>-1.451114283907484</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.37278586047199</v>
+        <v>-5.043681460585643</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.989151623644363</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.87513608495971</v>
+        <v>-19.01425525384322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7459574251739342</v>
+        <v>-1.309966166970836</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.946762326002223</v>
+        <v>-4.813518776628098</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.686864762399298</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.87698528301427</v>
+        <v>-19.92373825534941</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000838376896657</v>
+        <v>-1.000280835552647</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.415214830628145</v>
+        <v>-4.415538954845309</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.40714321004284</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.89716370504726</v>
+        <v>-20.79233399508088</v>
       </c>
       <c r="F17" t="n">
-        <v>1.088059298428236</v>
+        <v>-0.8592636416444157</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.987476204486113</v>
+        <v>-4.218368874048915</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.174277291686781</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.65241937907791</v>
+        <v>-21.47787315647934</v>
       </c>
       <c r="F18" t="n">
-        <v>1.146896107398953</v>
+        <v>-0.6492631040631295</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.547587921306959</v>
+        <v>-4.171969752777837</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.003697562985775</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.48186913331262</v>
+        <v>-22.16734000873032</v>
       </c>
       <c r="F19" t="n">
-        <v>1.326980732986895</v>
+        <v>-0.3559824281056239</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.864627943568318</v>
+        <v>-3.845748842870549</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.903773102372028</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.01596962774083</v>
+        <v>-22.7223881877053</v>
       </c>
       <c r="F20" t="n">
-        <v>1.493750486584802</v>
+        <v>0.02759586055126647</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.259619536949315</v>
+        <v>-3.577998157454409</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.87887013417166</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.8212117140212</v>
+        <v>-23.46656777353185</v>
       </c>
       <c r="F21" t="n">
-        <v>1.523077244950268</v>
+        <v>0.2612672816703933</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.958287094744148</v>
+        <v>-3.682239072680232</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.919916473288128</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.4655363060739</v>
+        <v>-24.18786201399106</v>
       </c>
       <c r="F22" t="n">
-        <v>1.665364392234147</v>
+        <v>0.6680189463571389</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.538979911632187</v>
+        <v>-3.757899490802567</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.017539790797538</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.86864831057065</v>
+        <v>-24.50673814200414</v>
       </c>
       <c r="F23" t="n">
-        <v>1.877014559973491</v>
+        <v>0.8696665947254038</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.236416792959897</v>
+        <v>-3.617196512162537</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.15124605317077</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.33918567470228</v>
+        <v>-24.99302554645437</v>
       </c>
       <c r="F24" t="n">
-        <v>1.891730308367591</v>
+        <v>0.9381524308904728</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.114187053629543</v>
+        <v>-3.805568565449292</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.30335210505745</v>
       </c>
       <c r="E25" t="n">
-        <v>-29.75228710626726</v>
+        <v>-25.32727203800364</v>
       </c>
       <c r="F25" t="n">
-        <v>2.104139829671755</v>
+        <v>1.282178872662509</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.888161537369984</v>
+        <v>-3.848288749621844</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.452646868953857</v>
       </c>
       <c r="E26" t="n">
-        <v>-29.99610506208873</v>
+        <v>-25.39137195271673</v>
       </c>
       <c r="F26" t="n">
-        <v>2.126344375291322</v>
+        <v>1.359397274823009</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.731525226171573</v>
+        <v>-4.070399667331727</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.579313360996816</v>
       </c>
       <c r="E27" t="n">
-        <v>-29.85053174679158</v>
+        <v>-25.46844633954597</v>
       </c>
       <c r="F27" t="n">
-        <v>2.195236072844485</v>
+        <v>1.444078289603293</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.645731365649742</v>
+        <v>-4.070857897931187</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.669637600958873</v>
       </c>
       <c r="E28" t="n">
-        <v>-29.77102219163378</v>
+        <v>-25.38575535479763</v>
       </c>
       <c r="F28" t="n">
-        <v>2.251349682824122</v>
+        <v>1.50275799093991</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.333113358395007</v>
+        <v>-3.985509175705975</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.708383457316184</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.7546829976873</v>
+        <v>-25.37224409826497</v>
       </c>
       <c r="F29" t="n">
-        <v>2.237576580234627</v>
+        <v>1.585867929379187</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.406639731154141</v>
+        <v>-4.216522859348231</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.689545215927908</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.56344373007821</v>
+        <v>-25.30570901522331</v>
       </c>
       <c r="F30" t="n">
-        <v>2.128360589928948</v>
+        <v>1.56450129114149</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.614715700217693</v>
+        <v>-4.485674421168436</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.60682643704987</v>
       </c>
       <c r="E31" t="n">
-        <v>-29.18660797738481</v>
+        <v>-24.96524367982423</v>
       </c>
       <c r="F31" t="n">
-        <v>2.155959164319306</v>
+        <v>1.627161052541991</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.747720404786788</v>
+        <v>-4.653609389719256</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.460379511662608</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.80807022532198</v>
+        <v>-24.58741291211486</v>
       </c>
       <c r="F32" t="n">
-        <v>2.199216132908369</v>
+        <v>1.654078827184579</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.084140218607781</v>
+        <v>-4.886364349639462</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.254192950299598</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.46818095124793</v>
+        <v>-24.41816871327987</v>
       </c>
       <c r="F33" t="n">
-        <v>2.224039139096282</v>
+        <v>1.591942757897747</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.149156594519793</v>
+        <v>-4.970233641643559</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.993095928774591</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.80340618215645</v>
+        <v>-23.83075636168014</v>
       </c>
       <c r="F34" t="n">
-        <v>2.150565135548515</v>
+        <v>1.374689084542145</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.473348197486614</v>
+        <v>-5.027944512569888</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.689926173667955</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.25402697031194</v>
+        <v>-23.43688752298965</v>
       </c>
       <c r="F35" t="n">
-        <v>2.100735830932906</v>
+        <v>1.302039896073407</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.616918390448982</v>
+        <v>-5.034739417744744</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.353109100687932</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.63528473801196</v>
+        <v>-22.89168475575165</v>
       </c>
       <c r="F36" t="n">
-        <v>2.088088666387799</v>
+        <v>1.191305198638088</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.741282175142538</v>
+        <v>-4.79669516747648</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.997051449953871</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.95936841920217</v>
+        <v>-22.23353469189809</v>
       </c>
       <c r="F37" t="n">
-        <v>2.15810630198535</v>
+        <v>1.141200955662802</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.85492336380872</v>
+        <v>-4.798554274480005</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.633114760593767</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.40756713133194</v>
+        <v>-21.74698544139102</v>
       </c>
       <c r="F38" t="n">
-        <v>2.273920812923258</v>
+        <v>0.9644941442080256</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.088490046505113</v>
+        <v>-4.535673925720988</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.272533147487726</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.75873878710168</v>
+        <v>-21.28329535164561</v>
       </c>
       <c r="F39" t="n">
-        <v>2.356166659374982</v>
+        <v>0.8809128828664464</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.250140709691905</v>
+        <v>-4.307252518041393</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.928371907033294</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.17868430969901</v>
+        <v>-20.7261654965188</v>
       </c>
       <c r="F40" t="n">
-        <v>2.434144415100302</v>
+        <v>0.8130947541463054</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.494364526901463</v>
+        <v>-4.479049715930523</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.607840054771941</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.51146127997612</v>
+        <v>-20.03668555196498</v>
       </c>
       <c r="F41" t="n">
-        <v>2.546659665722096</v>
+        <v>0.8161190761027441</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.622171587242393</v>
+        <v>-4.278200698035603</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.323797942167609</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.82127435106885</v>
+        <v>-19.35557158892702</v>
       </c>
       <c r="F42" t="n">
-        <v>2.66805149767058</v>
+        <v>0.6951723824508786</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.125688462232336</v>
+        <v>-4.414740324371964</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.081374429251172</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.27371496931934</v>
+        <v>-18.7316055277932</v>
       </c>
       <c r="F43" t="n">
-        <v>2.751266174532591</v>
+        <v>0.5884177450794443</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.362580589850527</v>
+        <v>-4.519491839408614</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.888600366719719</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.41793659406992</v>
+        <v>-18.01704073099463</v>
       </c>
       <c r="F44" t="n">
-        <v>2.783866008608489</v>
+        <v>0.5896091446380414</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.568745082699188</v>
+        <v>-4.224993579286828</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.74704310425244</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.84235968423911</v>
+        <v>-17.5529055029526</v>
       </c>
       <c r="F45" t="n">
-        <v>2.880801418848629</v>
+        <v>0.5814526399676461</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.788394647474826</v>
+        <v>-4.181029626344312</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.655797552621537</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.25160879541475</v>
+        <v>-16.96262593703054</v>
       </c>
       <c r="F46" t="n">
-        <v>3.048697110490924</v>
+        <v>0.5011837312450236</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.050175242795139</v>
+        <v>-4.145942254728486</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.613247797938938</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.81917003255254</v>
+        <v>-16.52412543795261</v>
       </c>
       <c r="F47" t="n">
-        <v>3.078521376364376</v>
+        <v>0.4403437999395225</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.17427718143186</v>
+        <v>-4.089710814023273</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.614019315601411</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.07509518514872</v>
+        <v>-15.97248125771648</v>
       </c>
       <c r="F48" t="n">
-        <v>3.161971714677537</v>
+        <v>0.4378038931882277</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.412805846905267</v>
+        <v>-4.16349903283924</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.655230347158524</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.57822920000238</v>
+        <v>-15.41985515476722</v>
       </c>
       <c r="F49" t="n">
-        <v>3.174985463702213</v>
+        <v>0.3056501883038447</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.4805585141112</v>
+        <v>-4.114795666268019</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.729937810467435</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.99563481584841</v>
+        <v>-14.83745715515588</v>
       </c>
       <c r="F50" t="n">
-        <v>3.137881877448762</v>
+        <v>0.104329847506623</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.564584913749398</v>
+        <v>-3.954388771851192</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.834876976590672</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.36973109389401</v>
+        <v>-14.12659748006152</v>
       </c>
       <c r="F51" t="n">
-        <v>3.244584145608829</v>
+        <v>0.1202500877621619</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.596896717162777</v>
+        <v>-3.878833092151591</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.963325135932264</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.73463657534472</v>
+        <v>-13.49751232851658</v>
       </c>
       <c r="F52" t="n">
-        <v>3.206066590648471</v>
+        <v>0.06371752409158869</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.639734732060905</v>
+        <v>-3.811643393967853</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.110700682198763</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11704646569482</v>
+        <v>-12.83066897557611</v>
       </c>
       <c r="F53" t="n">
-        <v>3.352412351813285</v>
+        <v>0.2879101179533059</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.843464056581005</v>
+        <v>-3.831504417378751</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.269802391628159</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.49877555629715</v>
+        <v>-12.33640835869526</v>
       </c>
       <c r="F54" t="n">
-        <v>3.307950891362783</v>
+        <v>0.159723380829966</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.975067884746035</v>
+        <v>-3.990785373751191</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.434228935735324</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.86738615945206</v>
+        <v>-11.70960126784479</v>
       </c>
       <c r="F55" t="n">
-        <v>3.318084333762279</v>
+        <v>-0.008682910623156462</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.17003845866502</v>
+        <v>-4.115293173776005</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.59790350303298</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.47172367527226</v>
+        <v>-11.38417898841084</v>
       </c>
       <c r="F56" t="n">
-        <v>3.292213943347028</v>
+        <v>0.05014080604471876</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.350777699395048</v>
+        <v>-4.259923843268553</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.752857168258991</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.81212036580326</v>
+        <v>-10.72676209351641</v>
       </c>
       <c r="F57" t="n">
-        <v>3.22950181273516</v>
+        <v>-0.09208087972495152</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.497332937405329</v>
+        <v>-4.466690582047933</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.894488594360983</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.29215955844411</v>
+        <v>-10.26020478944866</v>
       </c>
       <c r="F58" t="n">
-        <v>3.206773575001924</v>
+        <v>-0.09596929366894416</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.805407915573986</v>
+        <v>-4.775105960090474</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.01556585371794</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.68052644658719</v>
+        <v>-9.683842341447354</v>
       </c>
       <c r="F59" t="n">
-        <v>3.091116171698116</v>
+        <v>-0.1170871781526483</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.842066363530819</v>
+        <v>-4.89643233052475</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.112758120781301</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.15404567241286</v>
+        <v>-9.43160603489866</v>
       </c>
       <c r="F60" t="n">
-        <v>2.97145252372474</v>
+        <v>-0.2478007297244414</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.032637923694984</v>
+        <v>-5.000699430356256</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.18337171233336</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.75038379119676</v>
+        <v>-9.009470914372885</v>
       </c>
       <c r="F61" t="n">
-        <v>2.808270061105466</v>
+        <v>-0.3441600786395452</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.144197436209331</v>
+        <v>-5.122785154355351</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.226845258452565</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.255206713117</v>
+        <v>-8.593030945583264</v>
       </c>
       <c r="F62" t="n">
-        <v>2.511048601992601</v>
+        <v>-0.5135613851086388</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.290661028099721</v>
+        <v>-5.423528442932641</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.244897166899939</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.02975725818248</v>
+        <v>-8.214388455097703</v>
       </c>
       <c r="F63" t="n">
-        <v>2.403534611056346</v>
+        <v>-0.5964880313081318</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.415679427935363</v>
+        <v>-5.441883851516741</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.23708742276491</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.65551378145174</v>
+        <v>-7.981371649120663</v>
       </c>
       <c r="F64" t="n">
-        <v>2.257869649639302</v>
+        <v>-0.6081794577457931</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.348398083631733</v>
+        <v>-5.548363550528499</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.206013506340263</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.54319491537257</v>
+        <v>-7.903577185635127</v>
       </c>
       <c r="F65" t="n">
-        <v>2.033650871171901</v>
+        <v>-0.7673949526040238</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.321689785834612</v>
+        <v>-5.69195992809655</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.152444950578452</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.28394113450071</v>
+        <v>-7.718962623263947</v>
       </c>
       <c r="F66" t="n">
-        <v>1.913201685028022</v>
+        <v>-0.8472579999385529</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.392911913293601</v>
+        <v>-5.808808730958956</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.076367013690426</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.08386456247345</v>
+        <v>-7.646182511766792</v>
       </c>
       <c r="F67" t="n">
-        <v>1.629386744025084</v>
+        <v>-1.018452951896963</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.245047444999147</v>
+        <v>-5.643583869096373</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.979728181401744</v>
       </c>
       <c r="E68" t="n">
-        <v>-9.978353693871982</v>
+        <v>-7.576924229734061</v>
       </c>
       <c r="F68" t="n">
-        <v>1.345571803022146</v>
+        <v>-1.191637933887315</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.196710662907495</v>
+        <v>-5.502134629194364</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.860217500566482</v>
       </c>
       <c r="E69" t="n">
-        <v>-9.759332559632746</v>
+        <v>-7.415037905096119</v>
       </c>
       <c r="F69" t="n">
-        <v>1.192470413591002</v>
+        <v>-1.251941080776306</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.060812559410378</v>
+        <v>-5.448835864325697</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.718511759625802</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.6957170601248</v>
+        <v>-7.455833520750937</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9353375857795017</v>
+        <v>-1.525452379442805</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.80505442339726</v>
+        <v>-5.444253558331093</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.552148753344551</v>
       </c>
       <c r="E71" t="n">
-        <v>-9.491712797245023</v>
+        <v>-7.411594629448745</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8902869717011223</v>
+        <v>-1.469757723154102</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.584972812627844</v>
+        <v>-5.37262556948401</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.360592021828754</v>
       </c>
       <c r="E72" t="n">
-        <v>-9.524024600658404</v>
+        <v>-7.558830667206796</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7688034936327461</v>
+        <v>-1.552985492318955</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.370206676812169</v>
+        <v>-5.351416038880414</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.146758922566377</v>
       </c>
       <c r="E73" t="n">
-        <v>-9.635099697967608</v>
+        <v>-7.755359225163946</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6392289724081832</v>
+        <v>-1.562084642793955</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.152573326674157</v>
+        <v>-5.255161428388043</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.912040006441835</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.880973145335224</v>
+        <v>-8.267333727789644</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5072585597635845</v>
+        <v>-1.563315319261077</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.951698124173554</v>
+        <v>-5.339266381843292</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.6648698808387</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.034022165555</v>
+        <v>-8.714527515954481</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4420981685203138</v>
+        <v>-1.628973218012333</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.759241272400181</v>
+        <v>-5.288599169845813</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.408740088420967</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.18463601744622</v>
+        <v>-9.048171761573029</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3615935983465402</v>
+        <v>-1.68348956704528</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.468814718462172</v>
+        <v>-5.193562143517723</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.151532173350657</v>
       </c>
       <c r="E77" t="n">
-        <v>-10.63791772643246</v>
+        <v>-9.805744773206666</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3455686196682675</v>
+        <v>-1.673513232279885</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.296467643853689</v>
+        <v>-5.096548179460532</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.898352728443581</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.22176897165923</v>
+        <v>-10.66694336183256</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1796891426635982</v>
+        <v>-1.864831053706028</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.103945330566107</v>
+        <v>-5.087527582802583</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.652845916189277</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.84980673897683</v>
+        <v>-11.53581403992371</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1524833373584914</v>
+        <v>-1.831026727768691</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.759290458257669</v>
+        <v>-4.959511045616185</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.420253728298992</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.19615051835185</v>
+        <v>-12.03425110141107</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06912464516522156</v>
+        <v>-1.83374992675977</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.508677597261348</v>
+        <v>-4.889689794561261</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.199870083848626</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.7787056255973</v>
+        <v>-12.85981244170179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.03670810332910782</v>
+        <v>-1.838319140451533</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.226302809571001</v>
+        <v>-4.690896268212492</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9957188409771836</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.62778074179176</v>
+        <v>-13.85321710442344</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02245058553446813</v>
+        <v>-1.834587834141641</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.951063326929394</v>
+        <v>-4.483147606719982</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8062621663834116</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.3161085636955</v>
+        <v>-14.83993160039296</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.05246357132588843</v>
+        <v>-1.887821137496099</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.662076926303974</v>
+        <v>-4.417018385066425</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.6327200243097559</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.19529597642594</v>
+        <v>-15.87294047921083</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1158695939883678</v>
+        <v>-1.899879148413329</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.476153133648622</v>
+        <v>-4.285414556901394</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4754311016889966</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.06868349899748</v>
+        <v>-16.95407666327489</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.1873273828985087</v>
+        <v>-1.851908950801245</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.247312772278092</v>
+        <v>-4.034003065431728</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3351924592583229</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.21416835152862</v>
+        <v>-18.23015723665225</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2891331297957705</v>
+        <v>-1.909331791065055</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.077413958301013</v>
+        <v>-3.953289018412487</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2157511095708286</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.4236745649558</v>
+        <v>-19.51177585413165</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2562583573601964</v>
+        <v>-1.705510820425064</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.830610957431635</v>
+        <v>-3.680615627127858</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1198695560624613</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.75620914818668</v>
+        <v>-21.00983642219047</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2284241215186868</v>
+        <v>-1.629640925457261</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.762779736408652</v>
+        <v>-3.593159044145128</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05308459436107983</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.12952625476953</v>
+        <v>-22.61546335039692</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.3419343871564518</v>
+        <v>-1.682756398086144</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.731502224919768</v>
+        <v>-3.557351595873007</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0191524660756659</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.60402067771325</v>
+        <v>-24.40967180873558</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3031418938364175</v>
+        <v>-1.4086035765804</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.6428411500756</v>
+        <v>-3.53840703366103</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02328079213877487</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.11760871694236</v>
+        <v>-26.19750431559033</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3720074067838966</v>
+        <v>-1.324878299907561</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.717205430216604</v>
+        <v>-3.434467241400566</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.06833285088153704</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.87343054334908</v>
+        <v>-28.2527078310788</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.48444410358864</v>
+        <v>-1.280600131696844</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.834708848221095</v>
+        <v>-3.670377446305628</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1590571891394777</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.5478575229888</v>
+        <v>-30.1457631758725</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.7076024055258608</v>
+        <v>-1.366027407739107</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.806089074209082</v>
+        <v>-3.573036174677395</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2963743512669875</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.28524538699437</v>
+        <v>-32.23466627887558</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7198960778942417</v>
+        <v>-1.131426433118217</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.964820153862169</v>
+        <v>-3.742345835026597</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4818725302840273</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.11418772477214</v>
+        <v>-34.18172737289139</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.9052961784359245</v>
+        <v>-1.204101806192639</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.023303470656159</v>
+        <v>-3.626871723962573</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.7179704389490416</v>
       </c>
       <c r="E96" t="n">
-        <v>-33.21839572979719</v>
+        <v>-36.38191505004914</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.052021616383149</v>
+        <v>-1.177760092875086</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.186355010247016</v>
+        <v>-3.832433970880514</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.9971309174353903</v>
       </c>
       <c r="E97" t="n">
-        <v>-35.28107495020829</v>
+        <v>-38.70901951095459</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.105516765794441</v>
+        <v>-1.109208795195808</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.392571872307043</v>
+        <v>-4.05464962701313</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.326188911103122</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.40132102621446</v>
+        <v>-41.01814824005834</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.210399203859509</v>
+        <v>-1.025575164642862</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.701484757857569</v>
+        <v>-4.170163014985679</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.682061740725534</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.48113807104538</v>
+        <v>-43.10730009681541</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.267363813523859</v>
+        <v>-1.209469650357746</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.019392055460362</v>
+        <v>-4.466677489745091</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.081956953225349</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.77826115844327</v>
+        <v>-45.51270962101722</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.209233988906595</v>
+        <v>-1.028154348302682</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.075086711749065</v>
+        <v>-4.617592464601668</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.474202531226406</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.88940808397444</v>
+        <v>-47.74721222392313</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.332550389372813</v>
+        <v>-1.085249880995449</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.420461660713798</v>
+        <v>-5.109391728548266</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.911662085701853</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.26333061984189</v>
+        <v>-50.10383982773666</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.451349945358635</v>
+        <v>-1.231909857428465</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.646316977036415</v>
+        <v>-5.444214281422568</v>
       </c>
     </row>
   </sheetData>
